--- a/@Org/Asymp_ratio.xlsx
+++ b/@Org/Asymp_ratio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>pearson</t>
   </si>
@@ -79,6 +79,48 @@
   </si>
   <si>
     <t>num_trials</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>noise_density</t>
+  </si>
+  <si>
+    <t>noise_ipr</t>
+  </si>
+  <si>
+    <t>dmu_ipr</t>
+  </si>
+  <si>
+    <t>corr_cos2_ratio</t>
+  </si>
+  <si>
+    <t>ipr_log</t>
+  </si>
+  <si>
+    <t>corr_cos_area</t>
+  </si>
+  <si>
+    <t>cos2_ratio</t>
+  </si>
+  <si>
+    <t>corr_cos2_area_per_neuron</t>
+  </si>
+  <si>
+    <t>eigen_noise_ipr</t>
+  </si>
+  <si>
+    <t>sigdens_log</t>
+  </si>
+  <si>
+    <t>corr_cos_area_per_neuron</t>
+  </si>
+  <si>
+    <t>eigen_noise_density</t>
+  </si>
+  <si>
+    <t>corr_cos2_area</t>
   </si>
 </sst>
 </file>
@@ -417,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -425,22 +467,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -533,284 +579,895 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>-0.20267818357559075</v>
+        <v>-0.47278313187980114</v>
       </c>
       <c r="C3">
-        <v>3.6288808614268232E-2</v>
+        <v>2.7180152047383959E-7</v>
       </c>
       <c r="D3">
-        <v>-0.32424224612551189</v>
+        <v>-0.60022727718019553</v>
       </c>
       <c r="E3">
-        <v>6.9787639210548897E-4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.22165402927173339</v>
+        <v>-0.43572562158349498</v>
       </c>
       <c r="G3">
-        <v>7.219422298132337E-4</v>
+        <v>2.9478442989470609E-11</v>
       </c>
       <c r="H3">
-        <v>3.1945859869858317E-2</v>
+        <v>0.21612887921664592</v>
       </c>
       <c r="I3">
-        <v>-0.46495812207000442</v>
+        <v>-0.80958695177319329</v>
       </c>
       <c r="J3">
-        <v>0.12774585218551932</v>
+        <v>1.4180530377227967E-3</v>
       </c>
       <c r="K3">
-        <v>-0.44055944055944052</v>
+        <v>-0.86013986013986021</v>
       </c>
       <c r="L3">
-        <v>0.15421575025671813</v>
+        <v>5.9708426051047637E-4</v>
       </c>
       <c r="M3">
-        <v>-0.27272727272727271</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="N3">
-        <v>0.24957952123750735</v>
+        <v>1.8032758136924804E-3</v>
       </c>
       <c r="O3">
-        <v>0.13780466080675136</v>
+        <v>0.62097413572955207</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>0.18969337684241264</v>
+        <v>-0.38524926920080493</v>
       </c>
       <c r="C4">
-        <v>5.0351767069663725E-2</v>
+        <v>4.1751421708692577E-5</v>
       </c>
       <c r="D4">
-        <v>0.24856285693890645</v>
+        <v>-0.47736044985207393</v>
       </c>
       <c r="E4">
-        <v>9.8342028610423505E-3</v>
+        <v>2.8732762664208563E-7</v>
       </c>
       <c r="F4">
-        <v>0.17910246860374165</v>
+        <v>-0.35390583671310172</v>
       </c>
       <c r="G4">
-        <v>6.4377361505485505E-3</v>
+        <v>6.6610684323893321E-8</v>
       </c>
       <c r="H4">
-        <v>2.6802468429476534E-2</v>
+        <v>0.14030668512851407</v>
       </c>
       <c r="I4">
-        <v>0.38846458918068411</v>
+        <v>-0.63585168377174639</v>
       </c>
       <c r="J4">
-        <v>0.2120617711038173</v>
+        <v>2.6255186962287062E-2</v>
       </c>
       <c r="K4">
-        <v>0.28671328671328666</v>
+        <v>-0.65734265734265729</v>
       </c>
       <c r="L4">
-        <v>0.36640845611198797</v>
+        <v>2.3981083171462206E-2</v>
       </c>
       <c r="M4">
-        <v>0.15151515151515152</v>
+        <v>-0.48484848484848486</v>
       </c>
       <c r="N4">
-        <v>0.5452047007776174</v>
+        <v>3.1050242838437284E-2</v>
       </c>
       <c r="O4">
-        <v>6.5995210752049394E-2</v>
+        <v>0.34473810013090145</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>-0.15288766588308689</v>
+        <v>-0.39891234981111573</v>
       </c>
       <c r="C5">
-        <v>0.11591233713196325</v>
+        <v>2.0813775877650084E-5</v>
       </c>
       <c r="D5">
-        <v>-0.25777346734849821</v>
+        <v>-0.5284586296753464</v>
       </c>
       <c r="E5">
-        <v>7.4955275688099532E-3</v>
+        <v>8.1472079985575891E-9</v>
       </c>
       <c r="F5">
-        <v>-0.1839181802151296</v>
+        <v>-0.3644859813084112</v>
       </c>
       <c r="G5">
-        <v>5.0312318000106555E-3</v>
+        <v>2.6731360091639385E-8</v>
       </c>
       <c r="H5">
-        <v>1.4073444458980178E-2</v>
+        <v>0.15112278723974815</v>
       </c>
       <c r="I5">
-        <v>-0.37068448703721574</v>
+        <v>-0.59521958268972597</v>
       </c>
       <c r="J5">
-        <v>0.2355459023996751</v>
+        <v>4.1172208172933822E-2</v>
       </c>
       <c r="K5">
-        <v>-0.2937062937062937</v>
+        <v>-0.65034965034965031</v>
       </c>
       <c r="L5">
-        <v>0.35433253421137584</v>
+        <v>2.5911516845969554E-2</v>
       </c>
       <c r="M5">
-        <v>-0.15151515151515152</v>
+        <v>-0.48484848484848486</v>
       </c>
       <c r="N5">
-        <v>0.5452047007776174</v>
+        <v>3.1050242838437284E-2</v>
       </c>
       <c r="O5">
-        <v>5.1147687823047905E-2</v>
+        <v>0.28971498677906471</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>-0.14110657943797367</v>
+        <v>-2.9974122041958779E-2</v>
       </c>
       <c r="C6">
-        <v>0.1471315179318986</v>
+        <v>0.75923779508427169</v>
       </c>
       <c r="D6">
-        <v>-0.22589588354003801</v>
+        <v>-3.9430631477889465E-2</v>
       </c>
       <c r="E6">
-        <v>1.9486585826291706E-2</v>
+        <v>0.68632594324508023</v>
       </c>
       <c r="F6">
-        <v>-0.15782049021336625</v>
+        <v>-2.4510668312466937E-2</v>
       </c>
       <c r="G6">
-        <v>1.610106708221096E-2</v>
+        <v>0.71027175404530962</v>
       </c>
       <c r="H6">
-        <v>1.0576886444120581E-2</v>
+        <v>-8.616804884078455E-3</v>
       </c>
       <c r="I6">
-        <v>-0.29883283271143307</v>
+        <v>-0.41485663628069913</v>
       </c>
       <c r="J6">
-        <v>0.34541129731481046</v>
+        <v>0.17992856655201162</v>
       </c>
       <c r="K6">
-        <v>-0.44755244755244755</v>
+        <v>-0.49650349650349646</v>
       </c>
       <c r="L6">
-        <v>0.14720537776715534</v>
+        <v>0.10409283287352614</v>
       </c>
       <c r="M6">
-        <v>-0.39393939393939392</v>
+        <v>-0.36363636363636365</v>
       </c>
       <c r="N6">
-        <v>8.6317114598364594E-2</v>
+        <v>0.11595087782587783</v>
       </c>
       <c r="O6">
-        <v>-1.7688319030271238E-3</v>
+        <v>8.9316631532749602E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-7.524394981340729E-2</v>
+        <v>0.18969337684241264</v>
       </c>
       <c r="C7">
-        <v>0.44113355802641729</v>
+        <v>5.0351767069663725E-2</v>
       </c>
       <c r="D7">
-        <v>-0.17518956092399932</v>
+        <v>0.24856285693890645</v>
       </c>
       <c r="E7">
-        <v>7.1155219626550692E-2</v>
+        <v>9.8342028610423505E-3</v>
       </c>
       <c r="F7">
-        <v>-0.12184799858931405</v>
+        <v>0.17910246860374165</v>
       </c>
       <c r="G7">
-        <v>6.3246348433232707E-2</v>
+        <v>6.4377361505485505E-3</v>
       </c>
       <c r="H7">
-        <v>-3.8082370452057202E-3</v>
+        <v>2.6802468429476534E-2</v>
       </c>
       <c r="I7">
-        <v>-0.19896486723401854</v>
+        <v>0.38846458918068411</v>
       </c>
       <c r="J7">
-        <v>0.53530084686024337</v>
+        <v>0.2120617711038173</v>
       </c>
       <c r="K7">
-        <v>-0.44055944055944052</v>
+        <v>0.28671328671328666</v>
       </c>
       <c r="L7">
-        <v>0.15421575025671813</v>
+        <v>0.36640845611198797</v>
       </c>
       <c r="M7">
-        <v>-0.30303030303030304</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="N7">
-        <v>0.19694994338223504</v>
+        <v>0.5452047007776174</v>
       </c>
       <c r="O7">
-        <v>-5.645427976720474E-2</v>
+        <v>6.5995210752049394E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>-7.6424737690791514E-2</v>
+        <v>0.17327034070055192</v>
       </c>
       <c r="C8">
-        <v>0.43397746785586644</v>
+        <v>7.4294342107679309E-2</v>
       </c>
       <c r="D8">
-        <v>-0.13629327753082976</v>
+        <v>0.23770058190795276</v>
       </c>
       <c r="E8">
-        <v>0.16156999811130046</v>
+        <v>1.3860960293688046E-2</v>
       </c>
       <c r="F8">
-        <v>-9.4641205966173009E-2</v>
+        <v>0.17369070710633044</v>
       </c>
       <c r="G8">
-        <v>0.1497873720832113</v>
+        <v>8.0755812857207874E-3</v>
       </c>
       <c r="H8">
-        <v>-3.6274428924067958E-3</v>
+        <v>2.0784731070928153E-2</v>
       </c>
       <c r="I8">
-        <v>-0.13535712544816034</v>
+        <v>0.37008297653022471</v>
       </c>
       <c r="J8">
-        <v>0.67489890493444926</v>
+        <v>0.23636628481032718</v>
       </c>
       <c r="K8">
-        <v>-0.30769230769230771</v>
+        <v>0.32167832167832167</v>
       </c>
       <c r="L8">
-        <v>0.33086267425089283</v>
+        <v>0.30831236054913413</v>
       </c>
       <c r="M8">
-        <v>-0.24242424242424243</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="N8">
         <v>0.3108100139957779</v>
       </c>
       <c r="O8">
+        <v>5.0657550469217605E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.14841504099280045</v>
+      </c>
+      <c r="C9">
+        <v>0.12709761314789103</v>
+      </c>
+      <c r="D9">
+        <v>0.19611473579027805</v>
+      </c>
+      <c r="E9">
+        <v>4.3064180650333794E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.13842355845529888</v>
+      </c>
+      <c r="G9">
+        <v>3.4815277780573826E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.2712996053779735E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.35849665285974369</v>
+      </c>
+      <c r="J9">
+        <v>0.25249900611133647</v>
+      </c>
+      <c r="K9">
+        <v>0.40559440559440557</v>
+      </c>
+      <c r="L9">
+        <v>0.19261218394604743</v>
+      </c>
+      <c r="M9">
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N9">
+        <v>0.24957952123750735</v>
+      </c>
+      <c r="O9">
+        <v>4.1371835122803291E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>-2.5416371995471719E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.79496947416001051</v>
+      </c>
+      <c r="D10">
+        <v>-0.14416426654127237</v>
+      </c>
+      <c r="E10">
+        <v>0.13832156224327338</v>
+      </c>
+      <c r="F10">
+        <v>-9.7866337506612597E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.13587002468035406</v>
+      </c>
+      <c r="H10">
+        <v>-8.8716652539646557E-3</v>
+      </c>
+      <c r="I10">
+        <v>0.33460747879162062</v>
+      </c>
+      <c r="J10">
+        <v>0.28773781964995893</v>
+      </c>
+      <c r="K10">
+        <v>0.17482517482517484</v>
+      </c>
+      <c r="L10">
+        <v>0.5882598949233353</v>
+      </c>
+      <c r="M10">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="N10">
+        <v>0.5452047007776174</v>
+      </c>
+      <c r="O10">
+        <v>2.3158381349613011E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>-0.14611720848588003</v>
+      </c>
+      <c r="C11">
+        <v>0.13315705143462264</v>
+      </c>
+      <c r="D11">
+        <v>-0.17853014361566646</v>
+      </c>
+      <c r="E11">
+        <v>6.5868514885935384E-2</v>
+      </c>
+      <c r="F11">
+        <v>-0.1253747134544172</v>
+      </c>
+      <c r="G11">
+        <v>5.5966681990306341E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.2029764697760736E-2</v>
+      </c>
+      <c r="I11">
+        <v>-0.29404129613945279</v>
+      </c>
+      <c r="J11">
+        <v>0.35357320011079529</v>
+      </c>
+      <c r="K11">
+        <v>-0.45454545454545453</v>
+      </c>
+      <c r="L11">
+        <v>0.14041303841228744</v>
+      </c>
+      <c r="M11">
+        <v>-0.24242424242424243</v>
+      </c>
+      <c r="N11">
+        <v>0.3108100139957779</v>
+      </c>
+      <c r="O11">
+        <v>-4.8936877810938917E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>-0.1304959788509199</v>
+      </c>
+      <c r="C12">
+        <v>0.180328985723331</v>
+      </c>
+      <c r="D12">
+        <v>-0.17535610023707363</v>
+      </c>
+      <c r="E12">
+        <v>7.0883751243528539E-2</v>
+      </c>
+      <c r="F12">
+        <v>-0.11726326926467995</v>
+      </c>
+      <c r="G12">
+        <v>7.3862426397229147E-2</v>
+      </c>
+      <c r="H12">
+        <v>7.6675738343194855E-3</v>
+      </c>
+      <c r="I12">
+        <v>-0.28439773541511626</v>
+      </c>
+      <c r="J12">
+        <v>0.37030647026984653</v>
+      </c>
+      <c r="K12">
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="L12">
+        <v>0.33086267425089283</v>
+      </c>
+      <c r="M12">
+        <v>-0.18181818181818182</v>
+      </c>
+      <c r="N12">
+        <v>0.45902395733124901</v>
+      </c>
+      <c r="O12">
+        <v>-1.1029720899828899E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>-0.12948188713828002</v>
+      </c>
+      <c r="C13">
+        <v>0.18376793816751558</v>
+      </c>
+      <c r="D13">
+        <v>-0.20833088422578813</v>
+      </c>
+      <c r="E13">
+        <v>3.1460843114072927E-2</v>
+      </c>
+      <c r="F13">
+        <v>-0.13630752953623698</v>
+      </c>
+      <c r="G13">
+        <v>3.7691235737673134E-2</v>
+      </c>
+      <c r="H13">
+        <v>7.4014215644798709E-3</v>
+      </c>
+      <c r="I13">
+        <v>-0.2569945058475932</v>
+      </c>
+      <c r="J13">
+        <v>0.4200391195699158</v>
+      </c>
+      <c r="K13">
+        <v>-0.2937062937062937</v>
+      </c>
+      <c r="L13">
+        <v>0.35433253421137584</v>
+      </c>
+      <c r="M13">
+        <v>-0.15151515151515152</v>
+      </c>
+      <c r="N13">
+        <v>0.5452047007776174</v>
+      </c>
+      <c r="O13">
+        <v>-2.7349206360566924E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>-0.14187539213258321</v>
+      </c>
+      <c r="C14">
+        <v>0.14491834299794226</v>
+      </c>
+      <c r="D14">
+        <v>-0.17199592468504479</v>
+      </c>
+      <c r="E14">
+        <v>7.6526050415497232E-2</v>
+      </c>
+      <c r="F14">
+        <v>-0.11761594075119026</v>
+      </c>
+      <c r="G14">
+        <v>7.2997144964783184E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.0796518577467551E-2</v>
+      </c>
+      <c r="I14">
+        <v>-0.24320433687230966</v>
+      </c>
+      <c r="J14">
+        <v>0.44624782282642816</v>
+      </c>
+      <c r="K14">
+        <v>-0.28671328671328666</v>
+      </c>
+      <c r="L14">
+        <v>0.36640845611198797</v>
+      </c>
+      <c r="M14">
+        <v>-0.15151515151515152</v>
+      </c>
+      <c r="N14">
+        <v>0.5452047007776174</v>
+      </c>
+      <c r="O14">
+        <v>-3.4936815579150293E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>8.3832349982812873E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.39061875816730596</v>
+      </c>
+      <c r="D15">
+        <v>1.3293755755402733E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.89175392042944357</v>
+      </c>
+      <c r="F15">
+        <v>9.3457943925233638E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.88867407906121476</v>
+      </c>
+      <c r="H15">
+        <v>-2.4290145925145445E-3</v>
+      </c>
+      <c r="I15">
+        <v>0.17071922412647142</v>
+      </c>
+      <c r="J15">
+        <v>0.59577457864736982</v>
+      </c>
+      <c r="K15">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="L15">
+        <v>0.63513995537758583</v>
+      </c>
+      <c r="M15">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.84058836964218908</v>
+      </c>
+      <c r="O15">
+        <v>-6.794044116502107E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5.7613615386310789E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.55555947430868491</v>
+      </c>
+      <c r="D16">
+        <v>2.3638786026371993E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.80874806791202969</v>
+      </c>
+      <c r="F16">
+        <v>1.9220596014812203E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.77125614560266642</v>
+      </c>
+      <c r="H16">
+        <v>-6.1728681918522543E-3</v>
+      </c>
+      <c r="I16">
+        <v>0.15037858755746458</v>
+      </c>
+      <c r="J16">
+        <v>0.64086131397228696</v>
+      </c>
+      <c r="K16">
+        <v>0.2937062937062937</v>
+      </c>
+      <c r="L16">
+        <v>0.35433253421137584</v>
+      </c>
+      <c r="M16">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="N16">
+        <v>0.45902395733124901</v>
+      </c>
+      <c r="O16">
+        <v>-7.5124908444644145E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>-7.6424737690791514E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.43397746785586644</v>
+      </c>
+      <c r="D17">
+        <v>-0.13629327753082976</v>
+      </c>
+      <c r="E17">
+        <v>0.16156999811130046</v>
+      </c>
+      <c r="F17">
+        <v>-9.4641205966173009E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.1497873720832113</v>
+      </c>
+      <c r="H17">
+        <v>-3.6274428924067958E-3</v>
+      </c>
+      <c r="I17">
+        <v>-0.13535712544816034</v>
+      </c>
+      <c r="J17">
+        <v>0.67489890493444926</v>
+      </c>
+      <c r="K17">
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="L17">
+        <v>0.33086267425089283</v>
+      </c>
+      <c r="M17">
+        <v>-0.24242424242424243</v>
+      </c>
+      <c r="N17">
+        <v>0.3108100139957779</v>
+      </c>
+      <c r="O17">
         <v>-7.9846293449452377E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>4.6087980236846134E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.63736306847412971</v>
+      </c>
+      <c r="D18">
+        <v>5.2352122886420195E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.59173494610078214</v>
+      </c>
+      <c r="F18">
+        <v>3.6854170340327987E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.57552808927521049</v>
+      </c>
+      <c r="H18">
+        <v>-7.3794780593801068E-3</v>
+      </c>
+      <c r="I18">
+        <v>0.11775819336722324</v>
+      </c>
+      <c r="J18">
+        <v>0.71549613898512421</v>
+      </c>
+      <c r="K18">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.78319691029460803</v>
+      </c>
+      <c r="M18">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.73730552465795518</v>
+      </c>
+      <c r="O18">
+        <v>-8.474630868437627E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>-9.0288146605941991E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.35503409527437502</v>
+      </c>
+      <c r="D19">
+        <v>-6.6321832324301028E-3</v>
+      </c>
+      <c r="E19">
+        <v>0.9458928239154557</v>
+      </c>
+      <c r="F19">
+        <v>-5.8190795274202078E-3</v>
+      </c>
+      <c r="G19">
+        <v>0.93135284255869677</v>
+      </c>
+      <c r="H19">
+        <v>-1.2942224927727786E-3</v>
+      </c>
+      <c r="I19">
+        <v>-9.7330055609532382E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.76347652065076199</v>
+      </c>
+      <c r="K19">
+        <v>-5.5944055944055944E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.868980339326347</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>-8.9579546302550161E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>-3.0551689218516035E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.75474404062006861</v>
+      </c>
+      <c r="D20">
+        <v>-1.1804698367914732E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.90382125817137871</v>
+      </c>
+      <c r="F20">
+        <v>-6.5244225004408391E-3</v>
+      </c>
+      <c r="G20">
+        <v>0.92279728593998689</v>
+      </c>
+      <c r="H20">
+        <v>-8.5815142314751292E-3</v>
+      </c>
+      <c r="I20">
+        <v>3.572224814080275E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.91223918213810173</v>
+      </c>
+      <c r="K20">
+        <v>-8.3916083916083906E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.80019751795233474</v>
+      </c>
+      <c r="M20">
+        <v>-6.0606060606060608E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.84058836964218908</v>
+      </c>
+      <c r="O20">
+        <v>-9.859631308654393E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>-4.0048621291404053E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.68212524212062919</v>
+      </c>
+      <c r="D21">
+        <v>2.8409647524442098E-4</v>
+      </c>
+      <c r="E21">
+        <v>0.99771881230616999</v>
+      </c>
+      <c r="F21">
+        <v>4.0557220948686298E-3</v>
+      </c>
+      <c r="G21">
+        <v>0.95277431109246624</v>
+      </c>
+      <c r="H21">
+        <v>-7.9046422939208494E-3</v>
+      </c>
+      <c r="I21">
+        <v>2.8473905700926238E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.93000319205511872</v>
+      </c>
+      <c r="K21">
+        <v>-2.7972027972027972E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.93866336349350044</v>
+      </c>
+      <c r="M21">
+        <v>-3.0303030303030304E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.94655928915477527</v>
+      </c>
+      <c r="O21">
+        <v>-9.9108160363548192E-2</v>
       </c>
     </row>
   </sheetData>

--- a/@Org/Asymp_ratio.xlsx
+++ b/@Org/Asymp_ratio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>pearson</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>corr_cos2_area</t>
+  </si>
+  <si>
+    <t>total_signal</t>
+  </si>
+  <si>
+    <t>avg_signal</t>
+  </si>
+  <si>
+    <t>signal_perplexity_density</t>
+  </si>
+  <si>
+    <t>noise_perplexity_density</t>
   </si>
 </sst>
 </file>
@@ -459,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
@@ -532,40 +544,40 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B2">
-        <v>-0.55696450915188889</v>
+        <v>-0.56684523893926508</v>
       </c>
       <c r="C2">
-        <v>4.661567958166913E-10</v>
+        <v>1.9556267327823983E-10</v>
       </c>
       <c r="D2">
-        <v>-0.73723035325927244</v>
+        <v>-0.73349791336037151</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.54152706753658963</v>
+        <v>-0.53129959442779051</v>
       </c>
       <c r="G2">
-        <v>1.4047929145075395E-16</v>
+        <v>5.1376005017715733E-16</v>
       </c>
       <c r="H2">
-        <v>0.30364003078294577</v>
+        <v>0.31484984419295203</v>
       </c>
       <c r="I2">
-        <v>-0.82775091993376004</v>
+        <v>-0.85195793381255636</v>
       </c>
       <c r="J2">
-        <v>8.8737293261008539E-4</v>
+        <v>4.3440704048240155E-4</v>
       </c>
       <c r="K2">
-        <v>-0.86013986013986021</v>
+        <v>-0.87412587412587417</v>
       </c>
       <c r="L2">
-        <v>5.9708426051047637E-4</v>
+        <v>3.0886079305358655E-4</v>
       </c>
       <c r="M2">
         <v>-0.75757575757575757</v>
@@ -574,39 +586,39 @@
         <v>2.4002425044091711E-4</v>
       </c>
       <c r="O2">
-        <v>0.65368874399630461</v>
+        <v>0.69841555308477643</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>-0.47278313187980114</v>
+        <v>-0.55696450915188889</v>
       </c>
       <c r="C3">
-        <v>2.7180152047383959E-7</v>
+        <v>4.661567958166913E-10</v>
       </c>
       <c r="D3">
-        <v>-0.60022727718019553</v>
+        <v>-0.73723035325927244</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.43572562158349498</v>
+        <v>-0.54152706753658963</v>
       </c>
       <c r="G3">
-        <v>2.9478442989470609E-11</v>
+        <v>1.4047929145075395E-16</v>
       </c>
       <c r="H3">
-        <v>0.21612887921664592</v>
+        <v>0.30364003078294577</v>
       </c>
       <c r="I3">
-        <v>-0.80958695177319329</v>
+        <v>-0.82775091993376004</v>
       </c>
       <c r="J3">
-        <v>1.4180530377227967E-3</v>
+        <v>8.8737293261008539E-4</v>
       </c>
       <c r="K3">
         <v>-0.86013986013986021</v>
@@ -615,858 +627,1046 @@
         <v>5.9708426051047637E-4</v>
       </c>
       <c r="M3">
-        <v>-0.66666666666666663</v>
+        <v>-0.75757575757575757</v>
       </c>
       <c r="N3">
-        <v>1.8032758136924804E-3</v>
+        <v>2.4002425044091711E-4</v>
       </c>
       <c r="O3">
-        <v>0.62097413572955207</v>
+        <v>0.65368874399630461</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>-0.38524926920080493</v>
+        <v>-0.47278313187980114</v>
       </c>
       <c r="C4">
-        <v>4.1751421708692577E-5</v>
+        <v>2.7180152047383959E-7</v>
       </c>
       <c r="D4">
-        <v>-0.47736044985207393</v>
+        <v>-0.60022727718019553</v>
       </c>
       <c r="E4">
-        <v>2.8732762664208563E-7</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.35390583671310172</v>
+        <v>-0.43572562158349498</v>
       </c>
       <c r="G4">
-        <v>6.6610684323893321E-8</v>
+        <v>2.9478442989470609E-11</v>
       </c>
       <c r="H4">
-        <v>0.14030668512851407</v>
+        <v>0.21612887921664592</v>
       </c>
       <c r="I4">
-        <v>-0.63585168377174639</v>
+        <v>-0.80958695177319329</v>
       </c>
       <c r="J4">
-        <v>2.6255186962287062E-2</v>
+        <v>1.4180530377227967E-3</v>
       </c>
       <c r="K4">
-        <v>-0.65734265734265729</v>
+        <v>-0.86013986013986021</v>
       </c>
       <c r="L4">
-        <v>2.3981083171462206E-2</v>
+        <v>5.9708426051047637E-4</v>
       </c>
       <c r="M4">
-        <v>-0.48484848484848486</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="N4">
-        <v>3.1050242838437284E-2</v>
+        <v>1.8032758136924804E-3</v>
       </c>
       <c r="O4">
-        <v>0.34473810013090145</v>
+        <v>0.62097413572955207</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>-0.39891234981111573</v>
+        <v>-0.45987690506155759</v>
       </c>
       <c r="C5">
-        <v>2.0813775877650084E-5</v>
+        <v>6.2535104566609152E-7</v>
       </c>
       <c r="D5">
-        <v>-0.5284586296753464</v>
+        <v>-0.61693998706871223</v>
       </c>
       <c r="E5">
-        <v>8.1472079985575891E-9</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.3644859813084112</v>
+        <v>-0.45124316698994887</v>
       </c>
       <c r="G5">
-        <v>2.6731360091639385E-8</v>
+        <v>5.7364485081347674E-12</v>
       </c>
       <c r="H5">
-        <v>0.15112278723974815</v>
+        <v>0.2039771179786064</v>
       </c>
       <c r="I5">
-        <v>-0.59521958268972597</v>
+        <v>-0.80822040724518351</v>
       </c>
       <c r="J5">
-        <v>4.1172208172933822E-2</v>
+        <v>1.4660709794202449E-3</v>
       </c>
       <c r="K5">
-        <v>-0.65034965034965031</v>
+        <v>-0.81118881118881114</v>
       </c>
       <c r="L5">
-        <v>2.5911516845969554E-2</v>
+        <v>2.3689303978236169E-3</v>
       </c>
       <c r="M5">
-        <v>-0.48484848484848486</v>
+        <v>-0.63636363636363635</v>
       </c>
       <c r="N5">
-        <v>3.1050242838437284E-2</v>
+        <v>3.1816469924108811E-3</v>
       </c>
       <c r="O5">
-        <v>0.28971498677906471</v>
+        <v>0.61854224935632718</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>-2.9974122041958779E-2</v>
+        <v>-0.38524926920080493</v>
       </c>
       <c r="C6">
-        <v>0.75923779508427169</v>
+        <v>4.1751421708692577E-5</v>
       </c>
       <c r="D6">
-        <v>-3.9430631477889465E-2</v>
+        <v>-0.47736044985207393</v>
       </c>
       <c r="E6">
-        <v>0.68632594324508023</v>
+        <v>2.8732762664208563E-7</v>
       </c>
       <c r="F6">
-        <v>-2.4510668312466937E-2</v>
+        <v>-0.35390583671310172</v>
       </c>
       <c r="G6">
-        <v>0.71027175404530962</v>
+        <v>6.6610684323893321E-8</v>
       </c>
       <c r="H6">
-        <v>-8.616804884078455E-3</v>
+        <v>0.14030668512851407</v>
       </c>
       <c r="I6">
-        <v>-0.41485663628069913</v>
+        <v>-0.63585168377174639</v>
       </c>
       <c r="J6">
-        <v>0.17992856655201162</v>
+        <v>2.6255186962287062E-2</v>
       </c>
       <c r="K6">
-        <v>-0.49650349650349646</v>
+        <v>-0.65734265734265729</v>
       </c>
       <c r="L6">
-        <v>0.10409283287352614</v>
+        <v>2.3981083171462206E-2</v>
       </c>
       <c r="M6">
-        <v>-0.36363636363636365</v>
+        <v>-0.48484848484848486</v>
       </c>
       <c r="N6">
-        <v>0.11595087782587783</v>
+        <v>3.1050242838437284E-2</v>
       </c>
       <c r="O6">
-        <v>8.9316631532749602E-2</v>
+        <v>0.34473810013090145</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>0.18969337684241264</v>
+        <v>0.3828809838641038</v>
       </c>
       <c r="C7">
-        <v>5.0351767069663725E-2</v>
+        <v>4.6960246103738142E-5</v>
       </c>
       <c r="D7">
-        <v>0.24856285693890645</v>
+        <v>0.42613491643645057</v>
       </c>
       <c r="E7">
-        <v>9.8342028610423505E-3</v>
+        <v>5.8617467877170775E-6</v>
       </c>
       <c r="F7">
-        <v>0.17910246860374165</v>
+        <v>0.29571504143889965</v>
       </c>
       <c r="G7">
-        <v>6.4377361505485505E-3</v>
+        <v>6.4300105855375398E-6</v>
       </c>
       <c r="H7">
-        <v>2.6802468429476534E-2</v>
+        <v>0.13847020826002754</v>
       </c>
       <c r="I7">
-        <v>0.38846458918068411</v>
+        <v>0.60206239443400589</v>
       </c>
       <c r="J7">
-        <v>0.2120617711038173</v>
+        <v>3.8317932846430168E-2</v>
       </c>
       <c r="K7">
-        <v>0.28671328671328666</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="L7">
-        <v>0.36640845611198797</v>
+        <v>0.24625522801216129</v>
       </c>
       <c r="M7">
-        <v>0.15151515151515152</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N7">
-        <v>0.5452047007776174</v>
+        <v>0.24957952123750735</v>
       </c>
       <c r="O7">
-        <v>6.5995210752049394E-2</v>
+        <v>0.29872703947076906</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>0.17327034070055192</v>
+        <v>-0.39891234981111573</v>
       </c>
       <c r="C8">
-        <v>7.4294342107679309E-2</v>
+        <v>2.0813775877650084E-5</v>
       </c>
       <c r="D8">
-        <v>0.23770058190795276</v>
+        <v>-0.5284586296753464</v>
       </c>
       <c r="E8">
-        <v>1.3860960293688046E-2</v>
+        <v>8.1472079985575891E-9</v>
       </c>
       <c r="F8">
-        <v>0.17369070710633044</v>
+        <v>-0.3644859813084112</v>
       </c>
       <c r="G8">
-        <v>8.0755812857207874E-3</v>
+        <v>2.6731360091639385E-8</v>
       </c>
       <c r="H8">
-        <v>2.0784731070928153E-2</v>
+        <v>0.15112278723974815</v>
       </c>
       <c r="I8">
-        <v>0.37008297653022471</v>
+        <v>-0.59521958268972597</v>
       </c>
       <c r="J8">
-        <v>0.23636628481032718</v>
+        <v>4.1172208172933822E-2</v>
       </c>
       <c r="K8">
-        <v>0.32167832167832167</v>
+        <v>-0.65034965034965031</v>
       </c>
       <c r="L8">
-        <v>0.30831236054913413</v>
+        <v>2.5911516845969554E-2</v>
       </c>
       <c r="M8">
-        <v>0.24242424242424243</v>
+        <v>-0.48484848484848486</v>
       </c>
       <c r="N8">
-        <v>0.3108100139957779</v>
+        <v>3.1050242838437284E-2</v>
       </c>
       <c r="O8">
-        <v>5.0657550469217605E-2</v>
+        <v>0.28971498677906471</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0.14841504099280045</v>
+        <v>0.3616761721418032</v>
       </c>
       <c r="C9">
-        <v>0.12709761314789103</v>
+        <v>1.2935437855574717E-4</v>
       </c>
       <c r="D9">
-        <v>0.19611473579027805</v>
+        <v>0.46722114461490238</v>
       </c>
       <c r="E9">
-        <v>4.3064180650333794E-2</v>
+        <v>5.4156436420587955E-7</v>
       </c>
       <c r="F9">
-        <v>0.13842355845529888</v>
+        <v>0.31017457238582263</v>
       </c>
       <c r="G9">
-        <v>3.4815277780573826E-2</v>
+        <v>2.2179963007588737E-6</v>
       </c>
       <c r="H9">
-        <v>1.2712996053779735E-2</v>
+        <v>0.12253165019510126</v>
       </c>
       <c r="I9">
-        <v>0.35849665285974369</v>
+        <v>0.5499520715199514</v>
       </c>
       <c r="J9">
-        <v>0.25249900611133647</v>
+        <v>6.3954063686934209E-2</v>
       </c>
       <c r="K9">
-        <v>0.40559440559440557</v>
+        <v>0.46153846153846151</v>
       </c>
       <c r="L9">
-        <v>0.19261218394604743</v>
+        <v>0.13383631573843285</v>
       </c>
       <c r="M9">
-        <v>0.27272727272727271</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N9">
-        <v>0.24957952123750735</v>
+        <v>0.15259045898802842</v>
       </c>
       <c r="O9">
-        <v>4.1371835122803291E-2</v>
+        <v>0.23269200906599441</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>-2.5416371995471719E-2</v>
+        <v>-2.9974122041958779E-2</v>
       </c>
       <c r="C10">
-        <v>0.79496947416001051</v>
+        <v>0.75923779508427169</v>
       </c>
       <c r="D10">
-        <v>-0.14416426654127237</v>
+        <v>-3.9430631477889465E-2</v>
       </c>
       <c r="E10">
-        <v>0.13832156224327338</v>
+        <v>0.68632594324508023</v>
       </c>
       <c r="F10">
-        <v>-9.7866337506612597E-2</v>
+        <v>-2.4510668312466937E-2</v>
       </c>
       <c r="G10">
-        <v>0.13587002468035406</v>
+        <v>0.71027175404530962</v>
       </c>
       <c r="H10">
-        <v>-8.8716652539646557E-3</v>
+        <v>-8.616804884078455E-3</v>
       </c>
       <c r="I10">
-        <v>0.33460747879162062</v>
+        <v>-0.41485663628069913</v>
       </c>
       <c r="J10">
-        <v>0.28773781964995893</v>
+        <v>0.17992856655201162</v>
       </c>
       <c r="K10">
-        <v>0.17482517482517484</v>
+        <v>-0.49650349650349646</v>
       </c>
       <c r="L10">
-        <v>0.5882598949233353</v>
+        <v>0.10409283287352614</v>
       </c>
       <c r="M10">
-        <v>0.15151515151515152</v>
+        <v>-0.36363636363636365</v>
       </c>
       <c r="N10">
-        <v>0.5452047007776174</v>
+        <v>0.11595087782587783</v>
       </c>
       <c r="O10">
-        <v>2.3158381349613011E-2</v>
+        <v>8.9316631532749602E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.14611720848588003</v>
+        <v>0.18969337684241264</v>
       </c>
       <c r="C11">
-        <v>0.13315705143462264</v>
+        <v>5.0351767069663725E-2</v>
       </c>
       <c r="D11">
-        <v>-0.17853014361566646</v>
+        <v>0.24856285693890645</v>
       </c>
       <c r="E11">
-        <v>6.5868514885935384E-2</v>
+        <v>9.8342028610423505E-3</v>
       </c>
       <c r="F11">
-        <v>-0.1253747134544172</v>
+        <v>0.17910246860374165</v>
       </c>
       <c r="G11">
-        <v>5.5966681990306341E-2</v>
+        <v>6.4377361505485505E-3</v>
       </c>
       <c r="H11">
-        <v>1.2029764697760736E-2</v>
+        <v>2.6802468429476534E-2</v>
       </c>
       <c r="I11">
-        <v>-0.29404129613945279</v>
+        <v>0.38846458918068411</v>
       </c>
       <c r="J11">
-        <v>0.35357320011079529</v>
+        <v>0.2120617711038173</v>
       </c>
       <c r="K11">
-        <v>-0.45454545454545453</v>
+        <v>0.28671328671328666</v>
       </c>
       <c r="L11">
-        <v>0.14041303841228744</v>
+        <v>0.36640845611198797</v>
       </c>
       <c r="M11">
-        <v>-0.24242424242424243</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="N11">
-        <v>0.3108100139957779</v>
+        <v>0.5452047007776174</v>
       </c>
       <c r="O11">
-        <v>-4.8936877810938917E-3</v>
+        <v>6.5995210752049394E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>-0.1304959788509199</v>
+        <v>0.17327034070055192</v>
       </c>
       <c r="C12">
-        <v>0.180328985723331</v>
+        <v>7.4294342107679309E-2</v>
       </c>
       <c r="D12">
-        <v>-0.17535610023707363</v>
+        <v>0.23770058190795276</v>
       </c>
       <c r="E12">
-        <v>7.0883751243528539E-2</v>
+        <v>1.3860960293688046E-2</v>
       </c>
       <c r="F12">
-        <v>-0.11726326926467995</v>
+        <v>0.17369070710633044</v>
       </c>
       <c r="G12">
-        <v>7.3862426397229147E-2</v>
+        <v>8.0755812857207874E-3</v>
       </c>
       <c r="H12">
-        <v>7.6675738343194855E-3</v>
+        <v>2.0784731070928153E-2</v>
       </c>
       <c r="I12">
-        <v>-0.28439773541511626</v>
+        <v>0.37008297653022471</v>
       </c>
       <c r="J12">
-        <v>0.37030647026984653</v>
+        <v>0.23636628481032718</v>
       </c>
       <c r="K12">
-        <v>-0.30769230769230771</v>
+        <v>0.32167832167832167</v>
       </c>
       <c r="L12">
-        <v>0.33086267425089283</v>
+        <v>0.30831236054913413</v>
       </c>
       <c r="M12">
-        <v>-0.18181818181818182</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="N12">
-        <v>0.45902395733124901</v>
+        <v>0.3108100139957779</v>
       </c>
       <c r="O12">
-        <v>-1.1029720899828899E-2</v>
+        <v>5.0657550469217605E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>-0.12948188713828002</v>
+        <v>0.14841504099280045</v>
       </c>
       <c r="C13">
-        <v>0.18376793816751558</v>
+        <v>0.12709761314789103</v>
       </c>
       <c r="D13">
-        <v>-0.20833088422578813</v>
+        <v>0.19611473579027805</v>
       </c>
       <c r="E13">
-        <v>3.1460843114072927E-2</v>
+        <v>4.3064180650333794E-2</v>
       </c>
       <c r="F13">
-        <v>-0.13630752953623698</v>
+        <v>0.13842355845529888</v>
       </c>
       <c r="G13">
-        <v>3.7691235737673134E-2</v>
+        <v>3.4815277780573826E-2</v>
       </c>
       <c r="H13">
-        <v>7.4014215644798709E-3</v>
+        <v>1.2712996053779735E-2</v>
       </c>
       <c r="I13">
-        <v>-0.2569945058475932</v>
+        <v>0.35849665285974369</v>
       </c>
       <c r="J13">
-        <v>0.4200391195699158</v>
+        <v>0.25249900611133647</v>
       </c>
       <c r="K13">
-        <v>-0.2937062937062937</v>
+        <v>0.40559440559440557</v>
       </c>
       <c r="L13">
-        <v>0.35433253421137584</v>
+        <v>0.19261218394604743</v>
       </c>
       <c r="M13">
-        <v>-0.15151515151515152</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="N13">
-        <v>0.5452047007776174</v>
+        <v>0.24957952123750735</v>
       </c>
       <c r="O13">
-        <v>-2.7349206360566924E-2</v>
+        <v>4.1371835122803291E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>-0.14187539213258321</v>
+        <v>-2.5416371995471719E-2</v>
       </c>
       <c r="C14">
-        <v>0.14491834299794226</v>
+        <v>0.79496947416001051</v>
       </c>
       <c r="D14">
-        <v>-0.17199592468504479</v>
+        <v>-0.14416426654127237</v>
       </c>
       <c r="E14">
-        <v>7.6526050415497232E-2</v>
+        <v>0.13832156224327338</v>
       </c>
       <c r="F14">
-        <v>-0.11761594075119026</v>
+        <v>-9.7866337506612597E-2</v>
       </c>
       <c r="G14">
-        <v>7.2997144964783184E-2</v>
+        <v>0.13587002468035406</v>
       </c>
       <c r="H14">
-        <v>1.0796518577467551E-2</v>
+        <v>-8.8716652539646557E-3</v>
       </c>
       <c r="I14">
-        <v>-0.24320433687230966</v>
+        <v>0.33460747879162062</v>
       </c>
       <c r="J14">
-        <v>0.44624782282642816</v>
+        <v>0.28773781964995893</v>
       </c>
       <c r="K14">
-        <v>-0.28671328671328666</v>
+        <v>0.17482517482517484</v>
       </c>
       <c r="L14">
-        <v>0.36640845611198797</v>
+        <v>0.5882598949233353</v>
       </c>
       <c r="M14">
-        <v>-0.15151515151515152</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="N14">
         <v>0.5452047007776174</v>
       </c>
       <c r="O14">
-        <v>-3.4936815579150293E-2</v>
+        <v>2.3158381349613011E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>8.3832349982812873E-2</v>
+        <v>-0.14611720848588003</v>
       </c>
       <c r="C15">
-        <v>0.39061875816730596</v>
+        <v>0.13315705143462264</v>
       </c>
       <c r="D15">
-        <v>1.3293755755402733E-2</v>
+        <v>-0.17853014361566646</v>
       </c>
       <c r="E15">
-        <v>0.89175392042944357</v>
+        <v>6.5868514885935384E-2</v>
       </c>
       <c r="F15">
-        <v>9.3457943925233638E-3</v>
+        <v>-0.1253747134544172</v>
       </c>
       <c r="G15">
-        <v>0.88867407906121476</v>
+        <v>5.5966681990306341E-2</v>
       </c>
       <c r="H15">
-        <v>-2.4290145925145445E-3</v>
+        <v>1.2029764697760736E-2</v>
       </c>
       <c r="I15">
-        <v>0.17071922412647142</v>
+        <v>-0.29404129613945279</v>
       </c>
       <c r="J15">
-        <v>0.59577457864736982</v>
+        <v>0.35357320011079529</v>
       </c>
       <c r="K15">
-        <v>0.15384615384615385</v>
+        <v>-0.45454545454545453</v>
       </c>
       <c r="L15">
-        <v>0.63513995537758583</v>
+        <v>0.14041303841228744</v>
       </c>
       <c r="M15">
-        <v>6.0606060606060608E-2</v>
+        <v>-0.24242424242424243</v>
       </c>
       <c r="N15">
-        <v>0.84058836964218908</v>
+        <v>0.3108100139957779</v>
       </c>
       <c r="O15">
-        <v>-6.794044116502107E-2</v>
+        <v>-4.8936877810938917E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>5.7613615386310789E-2</v>
+        <v>-0.1304959788509199</v>
       </c>
       <c r="C16">
-        <v>0.55555947430868491</v>
+        <v>0.180328985723331</v>
       </c>
       <c r="D16">
-        <v>2.3638786026371993E-2</v>
+        <v>-0.17535610023707363</v>
       </c>
       <c r="E16">
-        <v>0.80874806791202969</v>
+        <v>7.0883751243528539E-2</v>
       </c>
       <c r="F16">
-        <v>1.9220596014812203E-2</v>
+        <v>-0.11726326926467995</v>
       </c>
       <c r="G16">
-        <v>0.77125614560266642</v>
+        <v>7.3862426397229147E-2</v>
       </c>
       <c r="H16">
-        <v>-6.1728681918522543E-3</v>
+        <v>7.6675738343194855E-3</v>
       </c>
       <c r="I16">
-        <v>0.15037858755746458</v>
+        <v>-0.28439773541511626</v>
       </c>
       <c r="J16">
-        <v>0.64086131397228696</v>
+        <v>0.37030647026984653</v>
       </c>
       <c r="K16">
-        <v>0.2937062937062937</v>
+        <v>-0.30769230769230771</v>
       </c>
       <c r="L16">
-        <v>0.35433253421137584</v>
+        <v>0.33086267425089283</v>
       </c>
       <c r="M16">
-        <v>0.18181818181818182</v>
+        <v>-0.18181818181818182</v>
       </c>
       <c r="N16">
         <v>0.45902395733124901</v>
       </c>
       <c r="O16">
-        <v>-7.5124908444644145E-2</v>
+        <v>-1.1029720899828899E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>-7.6424737690791514E-2</v>
+        <v>-0.12948188713828002</v>
       </c>
       <c r="C17">
-        <v>0.43397746785586644</v>
+        <v>0.18376793816751558</v>
       </c>
       <c r="D17">
-        <v>-0.13629327753082976</v>
+        <v>-0.20833088422578813</v>
       </c>
       <c r="E17">
-        <v>0.16156999811130046</v>
+        <v>3.1460843114072927E-2</v>
       </c>
       <c r="F17">
-        <v>-9.4641205966173009E-2</v>
+        <v>-0.13630752953623698</v>
       </c>
       <c r="G17">
-        <v>0.1497873720832113</v>
+        <v>3.7691235737673134E-2</v>
       </c>
       <c r="H17">
-        <v>-3.6274428924067958E-3</v>
+        <v>7.4014215644798709E-3</v>
       </c>
       <c r="I17">
-        <v>-0.13535712544816034</v>
+        <v>-0.2569945058475932</v>
       </c>
       <c r="J17">
-        <v>0.67489890493444926</v>
+        <v>0.4200391195699158</v>
       </c>
       <c r="K17">
-        <v>-0.30769230769230771</v>
+        <v>-0.2937062937062937</v>
       </c>
       <c r="L17">
-        <v>0.33086267425089283</v>
+        <v>0.35433253421137584</v>
       </c>
       <c r="M17">
-        <v>-0.24242424242424243</v>
+        <v>-0.15151515151515152</v>
       </c>
       <c r="N17">
-        <v>0.3108100139957779</v>
+        <v>0.5452047007776174</v>
       </c>
       <c r="O17">
-        <v>-7.9846293449452377E-2</v>
+        <v>-2.7349206360566924E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>4.6087980236846134E-2</v>
+        <v>-0.14187539213258321</v>
       </c>
       <c r="C18">
-        <v>0.63736306847412971</v>
+        <v>0.14491834299794226</v>
       </c>
       <c r="D18">
-        <v>5.2352122886420195E-2</v>
+        <v>-0.17199592468504479</v>
       </c>
       <c r="E18">
-        <v>0.59173494610078214</v>
+        <v>7.6526050415497232E-2</v>
       </c>
       <c r="F18">
-        <v>3.6854170340327987E-2</v>
+        <v>-0.11761594075119026</v>
       </c>
       <c r="G18">
-        <v>0.57552808927521049</v>
+        <v>7.2997144964783184E-2</v>
       </c>
       <c r="H18">
-        <v>-7.3794780593801068E-3</v>
+        <v>1.0796518577467551E-2</v>
       </c>
       <c r="I18">
-        <v>0.11775819336722324</v>
+        <v>-0.24320433687230966</v>
       </c>
       <c r="J18">
-        <v>0.71549613898512421</v>
+        <v>0.44624782282642816</v>
       </c>
       <c r="K18">
-        <v>9.0909090909090898E-2</v>
+        <v>-0.28671328671328666</v>
       </c>
       <c r="L18">
-        <v>0.78319691029460803</v>
+        <v>0.36640845611198797</v>
       </c>
       <c r="M18">
-        <v>9.0909090909090912E-2</v>
+        <v>-0.15151515151515152</v>
       </c>
       <c r="N18">
-        <v>0.73730552465795518</v>
+        <v>0.5452047007776174</v>
       </c>
       <c r="O18">
-        <v>-8.474630868437627E-2</v>
+        <v>-3.4936815579150293E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
-        <v>-9.0288146605941991E-2</v>
+        <v>8.3832349982812873E-2</v>
       </c>
       <c r="C19">
-        <v>0.35503409527437502</v>
+        <v>0.39061875816730596</v>
       </c>
       <c r="D19">
-        <v>-6.6321832324301028E-3</v>
+        <v>1.3293755755402733E-2</v>
       </c>
       <c r="E19">
-        <v>0.9458928239154557</v>
+        <v>0.89175392042944357</v>
       </c>
       <c r="F19">
-        <v>-5.8190795274202078E-3</v>
+        <v>9.3457943925233638E-3</v>
       </c>
       <c r="G19">
-        <v>0.93135284255869677</v>
+        <v>0.88867407906121476</v>
       </c>
       <c r="H19">
-        <v>-1.2942224927727786E-3</v>
+        <v>-2.4290145925145445E-3</v>
       </c>
       <c r="I19">
-        <v>-9.7330055609532382E-2</v>
+        <v>0.17071922412647142</v>
       </c>
       <c r="J19">
-        <v>0.76347652065076199</v>
+        <v>0.59577457864736982</v>
       </c>
       <c r="K19">
-        <v>-5.5944055944055944E-2</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="L19">
-        <v>0.868980339326347</v>
+        <v>0.63513995537758583</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.84058836964218908</v>
       </c>
       <c r="O19">
-        <v>-8.9579546302550161E-2</v>
+        <v>-6.794044116502107E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>-3.0551689218516035E-2</v>
+        <v>5.7613615386310789E-2</v>
       </c>
       <c r="C20">
-        <v>0.75474404062006861</v>
+        <v>0.55555947430868491</v>
       </c>
       <c r="D20">
-        <v>-1.1804698367914732E-2</v>
+        <v>2.3638786026371993E-2</v>
       </c>
       <c r="E20">
-        <v>0.90382125817137871</v>
+        <v>0.80874806791202969</v>
       </c>
       <c r="F20">
-        <v>-6.5244225004408391E-3</v>
+        <v>1.9220596014812203E-2</v>
       </c>
       <c r="G20">
-        <v>0.92279728593998689</v>
+        <v>0.77125614560266642</v>
       </c>
       <c r="H20">
-        <v>-8.5815142314751292E-3</v>
+        <v>-6.1728681918522543E-3</v>
       </c>
       <c r="I20">
-        <v>3.572224814080275E-2</v>
+        <v>0.15037858755746458</v>
       </c>
       <c r="J20">
-        <v>0.91223918213810173</v>
+        <v>0.64086131397228696</v>
       </c>
       <c r="K20">
-        <v>-8.3916083916083906E-2</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L20">
-        <v>0.80019751795233474</v>
+        <v>0.35433253421137584</v>
       </c>
       <c r="M20">
-        <v>-6.0606060606060608E-2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="N20">
-        <v>0.84058836964218908</v>
+        <v>0.45902395733124901</v>
       </c>
       <c r="O20">
-        <v>-9.859631308654393E-2</v>
+        <v>-7.5124908444644145E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>-7.6424737690791514E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.43397746785586644</v>
+      </c>
+      <c r="D21">
+        <v>-0.13629327753082976</v>
+      </c>
+      <c r="E21">
+        <v>0.16156999811130046</v>
+      </c>
+      <c r="F21">
+        <v>-9.4641205966173009E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.1497873720832113</v>
+      </c>
+      <c r="H21">
+        <v>-3.6274428924067958E-3</v>
+      </c>
+      <c r="I21">
+        <v>-0.13535712544816034</v>
+      </c>
+      <c r="J21">
+        <v>0.67489890493444926</v>
+      </c>
+      <c r="K21">
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="L21">
+        <v>0.33086267425089283</v>
+      </c>
+      <c r="M21">
+        <v>-0.24242424242424243</v>
+      </c>
+      <c r="N21">
+        <v>0.3108100139957779</v>
+      </c>
+      <c r="O21">
+        <v>-7.9846293449452377E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>4.6087980236846134E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.63736306847412971</v>
+      </c>
+      <c r="D22">
+        <v>5.2352122886420195E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.59173494610078214</v>
+      </c>
+      <c r="F22">
+        <v>3.6854170340327987E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.57552808927521049</v>
+      </c>
+      <c r="H22">
+        <v>-7.3794780593801068E-3</v>
+      </c>
+      <c r="I22">
+        <v>0.11775819336722324</v>
+      </c>
+      <c r="J22">
+        <v>0.71549613898512421</v>
+      </c>
+      <c r="K22">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.78319691029460803</v>
+      </c>
+      <c r="M22">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.73730552465795518</v>
+      </c>
+      <c r="O22">
+        <v>-8.474630868437627E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>-9.0288146605941991E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.35503409527437502</v>
+      </c>
+      <c r="D23">
+        <v>-6.6321832324301028E-3</v>
+      </c>
+      <c r="E23">
+        <v>0.9458928239154557</v>
+      </c>
+      <c r="F23">
+        <v>-5.8190795274202078E-3</v>
+      </c>
+      <c r="G23">
+        <v>0.93135284255869677</v>
+      </c>
+      <c r="H23">
+        <v>-1.2942224927727786E-3</v>
+      </c>
+      <c r="I23">
+        <v>-9.7330055609532382E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.76347652065076199</v>
+      </c>
+      <c r="K23">
+        <v>-5.5944055944055944E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.868980339326347</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>-8.9579546302550161E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>-3.0551689218516035E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.75474404062006861</v>
+      </c>
+      <c r="D24">
+        <v>-1.1804698367914732E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.90382125817137871</v>
+      </c>
+      <c r="F24">
+        <v>-6.5244225004408391E-3</v>
+      </c>
+      <c r="G24">
+        <v>0.92279728593998689</v>
+      </c>
+      <c r="H24">
+        <v>-8.5815142314751292E-3</v>
+      </c>
+      <c r="I24">
+        <v>3.572224814080275E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.91223918213810173</v>
+      </c>
+      <c r="K24">
+        <v>-8.3916083916083906E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.80019751795233474</v>
+      </c>
+      <c r="M24">
+        <v>-6.0606060606060608E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.84058836964218908</v>
+      </c>
+      <c r="O24">
+        <v>-9.859631308654393E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <v>-4.0048621291404053E-2</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>0.68212524212062919</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>2.8409647524442098E-4</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>0.99771881230616999</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>4.0557220948686298E-3</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>0.95277431109246624</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>-7.9046422939208494E-3</v>
       </c>
-      <c r="I21">
+      <c r="I25">
         <v>2.8473905700926238E-2</v>
       </c>
-      <c r="J21">
+      <c r="J25">
         <v>0.93000319205511872</v>
       </c>
-      <c r="K21">
+      <c r="K25">
         <v>-2.7972027972027972E-2</v>
       </c>
-      <c r="L21">
+      <c r="L25">
         <v>0.93866336349350044</v>
       </c>
-      <c r="M21">
+      <c r="M25">
         <v>-3.0303030303030304E-2</v>
       </c>
-      <c r="N21">
+      <c r="N25">
         <v>0.94655928915477527</v>
       </c>
-      <c r="O21">
+      <c r="O25">
         <v>-9.9108160363548192E-2</v>
       </c>
     </row>
